--- a/contratos/contratos-9-2013.xlsx
+++ b/contratos/contratos-9-2013.xlsx
@@ -703,7 +703,7 @@
     <t>MATELEC INGENIERIA S.R.L.</t>
   </si>
   <si>
-    <t>RAMIREZ CLAUDIA, RAMIREZ CESAR Y RAMIREZ VERONICA S.H.</t>
+    <t>RAMIREZ CLAUDIA. RAMIREZ CESAR Y RAMIREZ VERONICA SH</t>
   </si>
   <si>
     <t>TURIN ALBERTO JOSE</t>
@@ -793,13 +793,13 @@
     <t>STECKLEIN MARIA RAQUEL</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>BURGOS DANIEL RAUL</t>
@@ -832,13 +832,13 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>VALDUNCIEL RODOLFO RENE</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1186,7 +1186,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1366,646 +1366,646 @@
     <t>52</t>
   </si>
   <si>
-    <t>7.950,00</t>
-  </si>
-  <si>
-    <t>31.749,00</t>
-  </si>
-  <si>
-    <t>53.400,00</t>
-  </si>
-  <si>
-    <t>2.692.750,00</t>
-  </si>
-  <si>
-    <t>43.620,50</t>
-  </si>
-  <si>
-    <t>60.396,00</t>
-  </si>
-  <si>
-    <t>2.147,00</t>
-  </si>
-  <si>
-    <t>119.991,43</t>
-  </si>
-  <si>
-    <t>3.006,00</t>
-  </si>
-  <si>
-    <t>137,80</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>96.869,60</t>
-  </si>
-  <si>
-    <t>225.259,63</t>
-  </si>
-  <si>
-    <t>624,00</t>
-  </si>
-  <si>
-    <t>33.793,22</t>
-  </si>
-  <si>
-    <t>15.450,00</t>
-  </si>
-  <si>
-    <t>961,50</t>
-  </si>
-  <si>
-    <t>24.119,22</t>
-  </si>
-  <si>
-    <t>11.972,97</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>12.888,00</t>
-  </si>
-  <si>
-    <t>75,50</t>
-  </si>
-  <si>
-    <t>54,29</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>11.745,55</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>6.378,15</t>
-  </si>
-  <si>
-    <t>128,00</t>
-  </si>
-  <si>
-    <t>474,80</t>
-  </si>
-  <si>
-    <t>11,00</t>
-  </si>
-  <si>
-    <t>7.596,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>17.093,00</t>
-  </si>
-  <si>
-    <t>674,82</t>
-  </si>
-  <si>
-    <t>435,86</t>
-  </si>
-  <si>
-    <t>2.158,00</t>
-  </si>
-  <si>
-    <t>27.119,67</t>
-  </si>
-  <si>
-    <t>76.722,01</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>211,31</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>3.240,00</t>
-  </si>
-  <si>
-    <t>6.589,99</t>
-  </si>
-  <si>
-    <t>24,80</t>
-  </si>
-  <si>
-    <t>563,19</t>
-  </si>
-  <si>
-    <t>4.160,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>22.900,00</t>
-  </si>
-  <si>
-    <t>1.659,90</t>
-  </si>
-  <si>
-    <t>2.347,04</t>
-  </si>
-  <si>
-    <t>2.205,00</t>
-  </si>
-  <si>
-    <t>3.838,75</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>5.535,82</t>
-  </si>
-  <si>
-    <t>6.345,24</t>
-  </si>
-  <si>
-    <t>124,80</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>1.280,68</t>
-  </si>
-  <si>
-    <t>195,00</t>
-  </si>
-  <si>
-    <t>3.522,00</t>
-  </si>
-  <si>
-    <t>508,50</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>13.604,20</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>695,00</t>
-  </si>
-  <si>
-    <t>104,56</t>
-  </si>
-  <si>
-    <t>295,00</t>
-  </si>
-  <si>
-    <t>3.280,00</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>7.240,00</t>
-  </si>
-  <si>
-    <t>7.360,00</t>
-  </si>
-  <si>
-    <t>7.890,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>17.760,00</t>
-  </si>
-  <si>
-    <t>60.770,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>15.038,00</t>
-  </si>
-  <si>
-    <t>784,00</t>
-  </si>
-  <si>
-    <t>7.568,00</t>
-  </si>
-  <si>
-    <t>305,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>375,50</t>
-  </si>
-  <si>
-    <t>55,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>222.570,00</t>
-  </si>
-  <si>
-    <t>1.730,13</t>
-  </si>
-  <si>
-    <t>888,22</t>
-  </si>
-  <si>
-    <t>118,37</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>435,00</t>
-  </si>
-  <si>
-    <t>1.270,69</t>
-  </si>
-  <si>
-    <t>342,40</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>77,23</t>
-  </si>
-  <si>
-    <t>149,00</t>
-  </si>
-  <si>
-    <t>43,00</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>124,00</t>
-  </si>
-  <si>
-    <t>147,00</t>
-  </si>
-  <si>
-    <t>552,55</t>
-  </si>
-  <si>
-    <t>131,85</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>2.066,05</t>
-  </si>
-  <si>
-    <t>54,00</t>
-  </si>
-  <si>
-    <t>26,45</t>
-  </si>
-  <si>
-    <t>6.898,22</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>50,10</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>172,86</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>6.082,10</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>889,00</t>
-  </si>
-  <si>
-    <t>5.213,77</t>
-  </si>
-  <si>
-    <t>1.622,00</t>
-  </si>
-  <si>
-    <t>4.608,00</t>
-  </si>
-  <si>
-    <t>10.924,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.411,18</t>
-  </si>
-  <si>
-    <t>2.969,00</t>
-  </si>
-  <si>
-    <t>1.749,80</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>14.417,00</t>
-  </si>
-  <si>
-    <t>131.132,40</t>
-  </si>
-  <si>
-    <t>6.540,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>20.866,20</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>6.696,30</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>3.530,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>968,00</t>
-  </si>
-  <si>
-    <t>45.090,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>2.665,00</t>
-  </si>
-  <si>
-    <t>357,51</t>
-  </si>
-  <si>
-    <t>1.775,00</t>
-  </si>
-  <si>
-    <t>178,36</t>
-  </si>
-  <si>
-    <t>3.492,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>6,96</t>
-  </si>
-  <si>
-    <t>10.813,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>760,50</t>
-  </si>
-  <si>
-    <t>25.750,00</t>
-  </si>
-  <si>
-    <t>815,48</t>
-  </si>
-  <si>
-    <t>12.502,00</t>
-  </si>
-  <si>
-    <t>967,00</t>
-  </si>
-  <si>
-    <t>21.768,00</t>
-  </si>
-  <si>
-    <t>6.363,29</t>
-  </si>
-  <si>
-    <t>47,54</t>
-  </si>
-  <si>
-    <t>236,00</t>
-  </si>
-  <si>
-    <t>63,00</t>
-  </si>
-  <si>
-    <t>63,40</t>
-  </si>
-  <si>
-    <t>25.176,50</t>
-  </si>
-  <si>
-    <t>1.589,68</t>
-  </si>
-  <si>
-    <t>4.770,68</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>497,12</t>
-  </si>
-  <si>
-    <t>799,80</t>
-  </si>
-  <si>
-    <t>2.094,24</t>
-  </si>
-  <si>
-    <t>2.883,47</t>
-  </si>
-  <si>
-    <t>3.520,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>1.948,25</t>
-  </si>
-  <si>
-    <t>5.830,00</t>
-  </si>
-  <si>
-    <t>657.285,86</t>
-  </si>
-  <si>
-    <t>31.435,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>67.100,00</t>
-  </si>
-  <si>
-    <t>216.500,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>111.500,00</t>
-  </si>
-  <si>
-    <t>564.778,65</t>
-  </si>
-  <si>
-    <t>121.482,10</t>
-  </si>
-  <si>
-    <t>2.270,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>278.449,38</t>
-  </si>
-  <si>
-    <t>3.236,30</t>
-  </si>
-  <si>
-    <t>19.200,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>231.989,00</t>
-  </si>
-  <si>
-    <t>212.500,00</t>
-  </si>
-  <si>
-    <t>148.000,00</t>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>31749.00</t>
+  </si>
+  <si>
+    <t>53400.00</t>
+  </si>
+  <si>
+    <t>2692750.00</t>
+  </si>
+  <si>
+    <t>43620.50</t>
+  </si>
+  <si>
+    <t>60396.00</t>
+  </si>
+  <si>
+    <t>2147.00</t>
+  </si>
+  <si>
+    <t>119991.43</t>
+  </si>
+  <si>
+    <t>3006.00</t>
+  </si>
+  <si>
+    <t>137.80</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>96869.60</t>
+  </si>
+  <si>
+    <t>225259.63</t>
+  </si>
+  <si>
+    <t>624.00</t>
+  </si>
+  <si>
+    <t>33793.22</t>
+  </si>
+  <si>
+    <t>15450.00</t>
+  </si>
+  <si>
+    <t>961.50</t>
+  </si>
+  <si>
+    <t>24119.22</t>
+  </si>
+  <si>
+    <t>11972.97</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>12888.00</t>
+  </si>
+  <si>
+    <t>75.50</t>
+  </si>
+  <si>
+    <t>54.29</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>11745.55</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>6378.15</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>474.80</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>7596.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>17093.00</t>
+  </si>
+  <si>
+    <t>674.82</t>
+  </si>
+  <si>
+    <t>435.86</t>
+  </si>
+  <si>
+    <t>2158.00</t>
+  </si>
+  <si>
+    <t>27119.67</t>
+  </si>
+  <si>
+    <t>76722.01</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>211.31</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>3240.00</t>
+  </si>
+  <si>
+    <t>6589.99</t>
+  </si>
+  <si>
+    <t>24.80</t>
+  </si>
+  <si>
+    <t>563.19</t>
+  </si>
+  <si>
+    <t>4160.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>22900.00</t>
+  </si>
+  <si>
+    <t>1659.90</t>
+  </si>
+  <si>
+    <t>2347.04</t>
+  </si>
+  <si>
+    <t>2205.00</t>
+  </si>
+  <si>
+    <t>3838.75</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5535.82</t>
+  </si>
+  <si>
+    <t>6345.24</t>
+  </si>
+  <si>
+    <t>124.80</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>1280.68</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>3522.00</t>
+  </si>
+  <si>
+    <t>508.50</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>13604.20</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>695.00</t>
+  </si>
+  <si>
+    <t>104.56</t>
+  </si>
+  <si>
+    <t>295.00</t>
+  </si>
+  <si>
+    <t>3280.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>7240.00</t>
+  </si>
+  <si>
+    <t>7360.00</t>
+  </si>
+  <si>
+    <t>7890.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>17760.00</t>
+  </si>
+  <si>
+    <t>60770.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>15038.00</t>
+  </si>
+  <si>
+    <t>784.00</t>
+  </si>
+  <si>
+    <t>7568.00</t>
+  </si>
+  <si>
+    <t>305.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>375.50</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>222570.00</t>
+  </si>
+  <si>
+    <t>1730.13</t>
+  </si>
+  <si>
+    <t>888.22</t>
+  </si>
+  <si>
+    <t>118.37</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>1270.69</t>
+  </si>
+  <si>
+    <t>342.40</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>77.23</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>552.55</t>
+  </si>
+  <si>
+    <t>131.85</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>2066.05</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>26.45</t>
+  </si>
+  <si>
+    <t>6898.22</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>50.10</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>172.86</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>6082.10</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>889.00</t>
+  </si>
+  <si>
+    <t>5213.77</t>
+  </si>
+  <si>
+    <t>1622.00</t>
+  </si>
+  <si>
+    <t>4608.00</t>
+  </si>
+  <si>
+    <t>10924.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1411.18</t>
+  </si>
+  <si>
+    <t>2969.00</t>
+  </si>
+  <si>
+    <t>1749.80</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>14417.00</t>
+  </si>
+  <si>
+    <t>131132.40</t>
+  </si>
+  <si>
+    <t>6540.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>20866.20</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>6696.30</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>3530.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>45090.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>2665.00</t>
+  </si>
+  <si>
+    <t>357.51</t>
+  </si>
+  <si>
+    <t>1775.00</t>
+  </si>
+  <si>
+    <t>178.36</t>
+  </si>
+  <si>
+    <t>3492.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>6.96</t>
+  </si>
+  <si>
+    <t>10813.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>760.50</t>
+  </si>
+  <si>
+    <t>25750.00</t>
+  </si>
+  <si>
+    <t>815.48</t>
+  </si>
+  <si>
+    <t>12502.00</t>
+  </si>
+  <si>
+    <t>967.00</t>
+  </si>
+  <si>
+    <t>21768.00</t>
+  </si>
+  <si>
+    <t>6363.29</t>
+  </si>
+  <si>
+    <t>47.54</t>
+  </si>
+  <si>
+    <t>236.00</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.40</t>
+  </si>
+  <si>
+    <t>25176.50</t>
+  </si>
+  <si>
+    <t>1589.68</t>
+  </si>
+  <si>
+    <t>4770.68</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>497.12</t>
+  </si>
+  <si>
+    <t>799.80</t>
+  </si>
+  <si>
+    <t>2094.24</t>
+  </si>
+  <si>
+    <t>2883.47</t>
+  </si>
+  <si>
+    <t>3520.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>1948.25</t>
+  </si>
+  <si>
+    <t>5830.00</t>
+  </si>
+  <si>
+    <t>657285.86</t>
+  </si>
+  <si>
+    <t>31435.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>67100.00</t>
+  </si>
+  <si>
+    <t>216500.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>564778.65</t>
+  </si>
+  <si>
+    <t>121482.10</t>
+  </si>
+  <si>
+    <t>2270.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>278449.38</t>
+  </si>
+  <si>
+    <t>3236.30</t>
+  </si>
+  <si>
+    <t>19200.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>231989.00</t>
+  </si>
+  <si>
+    <t>212500.00</t>
+  </si>
+  <si>
+    <t>148000.00</t>
   </si>
 </sst>
 </file>
